--- a/examples/experiment1/data_resnet_False.xlsx
+++ b/examples/experiment1/data_resnet_False.xlsx
@@ -10,6 +10,7 @@
     <sheet name="batch_size_64" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="batch_size_128" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="batch_size_256" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="batch_size_641" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -692,4 +693,95 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Batch Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Forward NFE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Backward NFE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Train Accuracy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Test Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1124129295349121</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09751666666666667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0974</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1553966999053955</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9836333333333334</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9853</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/examples/experiment1/data_resnet_False.xlsx
+++ b/examples/experiment1/data_resnet_False.xlsx
@@ -7,10 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="batch_size_64" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="batch_size_128" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="batch_size_256" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="batch_size_641" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="batch_size_1.0" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1047821044921875</v>
+        <v>0.2246813774108887</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -482,10 +479,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1290333333333333</v>
+        <v>0.1192833333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1247</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1383564472198486</v>
+        <v>0.2224278450012207</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -502,283 +499,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9793500000000001</v>
+        <v>0.9753333333333334</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9784</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Epoch</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Batch Time</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Forward NFE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Backward NFE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Train Accuracy</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Test Accuracy</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1380288600921631</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1195</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1185</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1727480888366699</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9748833333333333</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9761</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Epoch</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Batch Time</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Forward NFE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Backward NFE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Train Accuracy</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Test Accuracy</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1842172145843506</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1013666666666667</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.09950000000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.2661993503570557</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9585666666666667</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9648</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Epoch</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Batch Time</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Forward NFE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Backward NFE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Train Accuracy</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Test Accuracy</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1124129295349121</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.09751666666666667</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0974</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1553966999053955</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9836333333333334</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9853</v>
+        <v>0.9776</v>
       </c>
     </row>
   </sheetData>

--- a/examples/experiment1/data_resnet_False.xlsx
+++ b/examples/experiment1/data_resnet_False.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="batch_size_1.0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="percentage_1.0" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2246813774108887</v>
+        <v>0.2341699600219727</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -479,10 +479,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1192833333333333</v>
+        <v>0.09721666666666667</v>
       </c>
       <c r="F2" t="n">
-        <v>0.12</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="3">
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2224278450012207</v>
+        <v>0.205578088760376</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -499,10 +499,970 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9753333333333334</v>
+        <v>0.9810166666666666</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9776</v>
+        <v>0.9847</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2737221717834473</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9860833333333333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9881</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2616269588470459</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9836833333333334</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9836</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.21437668800354</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.99295</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2520918846130371</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9926833333333334</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9927</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2758321762084961</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.99525</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.2109556198120117</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9946</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9951</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2601990699768066</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.99385</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9932</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2656283378601074</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.99575</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9941</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.2062630653381348</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9955000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9944</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.2714264392852783</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9960333333333333</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9946</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2609198093414307</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9971166666666667</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2212786674499512</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9959666666666667</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9946</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.25954270362854</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9955000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9945000000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2160730361938477</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9949</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9949</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.2119462490081787</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9974</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9946</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.2795960903167725</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9970166666666667</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9945000000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.2176253795623779</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9966666666666667</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9947</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2591788768768311</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9959333333333333</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9933</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2619185447692871</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9972666666666666</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9933999999999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2113838195800781</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9981333333333333</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9961</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2654321193695068</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.99755</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9958</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.2751178741455078</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9973166666666666</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9954</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.2111790180206299</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9973333333333333</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9948</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2624876499176025</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9980333333333333</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9954</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2773928642272949</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9982666666666666</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9951</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2026422023773193</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9983833333333333</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.3110239505767822</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9985333333333334</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9953</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2781682014465332</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9985166666666667</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9954</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.2110302448272705</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9974</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9956</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.2697789669036865</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.99815</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9949</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.2096199989318848</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9988833333333333</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9958</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.2614896297454834</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9987833333333334</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9962</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.2854995727539062</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9978666666666667</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9945000000000001</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.2219481468200684</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9991</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9965000000000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.2675988674163818</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.99855</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9954</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.2603626251220703</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9991166666666667</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9959</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.2197628021240234</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9983166666666666</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9954</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.2653355598449707</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9989333333333333</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9962</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.2780814170837402</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9992333333333333</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9965000000000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.2264249324798584</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9986</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9954</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.2674791812896729</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9986333333333334</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9955000000000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.2718057632446289</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9991</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9961</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.2162590026855469</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9992333333333333</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9963</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.2906970977783203</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9991666666666666</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9962</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.2932901382446289</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.2229974269866943</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9988833333333333</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9955000000000001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.2685229778289795</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9958</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.2093672752380371</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9988166666666667</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9958</v>
       </c>
     </row>
   </sheetData>
